--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/81.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/81.xlsx
@@ -479,13 +479,13 @@
         <v>-6.326912194533878</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.93277284546481</v>
+        <v>-10.6116677634527</v>
       </c>
       <c r="F2" t="n">
-        <v>5.489904788209795</v>
+        <v>5.581510109875181</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.83480855192895</v>
+        <v>-19.90088836874217</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.603674775703087</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.23906912567703</v>
+        <v>-10.9483198873016</v>
       </c>
       <c r="F3" t="n">
-        <v>5.515249399807882</v>
+        <v>5.606121370443231</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.22607830692937</v>
+        <v>-19.34575630602458</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.808745638449874</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.34470589705046</v>
+        <v>-11.04783562207765</v>
       </c>
       <c r="F4" t="n">
-        <v>5.354181068577369</v>
+        <v>5.422157820054955</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.44791952895686</v>
+        <v>-18.55480788608822</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.014047712523426</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.81405544528116</v>
+        <v>-11.49356637813429</v>
       </c>
       <c r="F5" t="n">
-        <v>5.688941146768769</v>
+        <v>5.725525585153894</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.91356085641678</v>
+        <v>-17.96910486343181</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.21127455072116</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.16299364338662</v>
+        <v>-11.88750788444969</v>
       </c>
       <c r="F6" t="n">
-        <v>5.552259181790428</v>
+        <v>5.558145546058194</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.44899764590879</v>
+        <v>-17.51566903255291</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.416687934474568</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.04998171421666</v>
+        <v>-12.75243675629622</v>
       </c>
       <c r="F7" t="n">
-        <v>5.653823410443719</v>
+        <v>5.657231048229959</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.56495275721263</v>
+        <v>-16.6352077858902</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.634095767476655</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.82608222029821</v>
+        <v>-13.53393961496571</v>
       </c>
       <c r="F8" t="n">
-        <v>5.846254720725492</v>
+        <v>5.850601047830179</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.17587092372294</v>
+        <v>-16.23531635821776</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.882937334402733</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.40087297962766</v>
+        <v>-14.11493452400928</v>
       </c>
       <c r="F9" t="n">
-        <v>6.01555613951989</v>
+        <v>5.971511076655853</v>
       </c>
       <c r="G9" t="n">
-        <v>-16.12962091876192</v>
+        <v>-16.21354561063939</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1708781215661001</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.12072057269849</v>
+        <v>-14.85753555503872</v>
       </c>
       <c r="F10" t="n">
-        <v>6.343202712719928</v>
+        <v>6.305972925428371</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.4282293266137</v>
+        <v>-15.49489582425096</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4816456773016542</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.53984535338537</v>
+        <v>-15.24850454517904</v>
       </c>
       <c r="F11" t="n">
-        <v>6.229396410871883</v>
+        <v>6.210632402516663</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.83062646124322</v>
+        <v>-14.89213016762901</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.057178194095253</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.56009797339378</v>
+        <v>-16.28075967704573</v>
       </c>
       <c r="F12" t="n">
-        <v>6.713452091758264</v>
+        <v>6.645289558019736</v>
       </c>
       <c r="G12" t="n">
-        <v>-14.53972566365491</v>
+        <v>-14.53988700088152</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>1.546219215878268</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.10450355504537</v>
+        <v>-16.79500986434218</v>
       </c>
       <c r="F13" t="n">
-        <v>6.951732508437965</v>
+        <v>6.869176738483239</v>
       </c>
       <c r="G13" t="n">
-        <v>-14.05228190100976</v>
+        <v>-14.02846265955415</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.936511705578441</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.4330031690059</v>
+        <v>-18.11898714695081</v>
       </c>
       <c r="F14" t="n">
-        <v>7.036625223675077</v>
+        <v>6.948461762844</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.44168894439389</v>
+        <v>-13.3854898104587</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.229391804533918</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.59200345033171</v>
+        <v>-18.29145175318811</v>
       </c>
       <c r="F15" t="n">
-        <v>7.09806048396473</v>
+        <v>6.985427543764743</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.87210008837083</v>
+        <v>-12.8210784127077</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.438451162656142</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.82494253607152</v>
+        <v>-19.51393814224646</v>
       </c>
       <c r="F16" t="n">
-        <v>7.106591800947497</v>
+        <v>6.973591258139942</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.76123696865666</v>
+        <v>-12.71280157762614</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.579696379703699</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.83349087364054</v>
+        <v>-20.54948846474145</v>
       </c>
       <c r="F17" t="n">
-        <v>7.457881611355936</v>
+        <v>7.316168858311539</v>
       </c>
       <c r="G17" t="n">
-        <v>-12.43883141081796</v>
+        <v>-12.40264298198905</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.675373932384709</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.51256903844816</v>
+        <v>-21.27473352139334</v>
       </c>
       <c r="F18" t="n">
-        <v>7.763659656840264</v>
+        <v>7.604889158837202</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.7622124164644</v>
+        <v>-11.74286172728515</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.748185368600994</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.24039549072578</v>
+        <v>-21.95644686090223</v>
       </c>
       <c r="F19" t="n">
-        <v>7.656306844056546</v>
+        <v>7.52367297676401</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.24591373529071</v>
+        <v>-11.17835743840368</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.814711398260326</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.0604921696027</v>
+        <v>-22.75497813048918</v>
       </c>
       <c r="F20" t="n">
-        <v>7.599638365462135</v>
+        <v>7.463103070689801</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.48607406604852</v>
+        <v>-10.43377635959313</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.889434786395255</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.95210524092884</v>
+        <v>-23.61413308522588</v>
       </c>
       <c r="F21" t="n">
-        <v>7.895692176288169</v>
+        <v>7.716725190917881</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.853553913634535</v>
+        <v>-9.825725686548054</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.981962576625701</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.36635079276255</v>
+        <v>-24.01708992020388</v>
       </c>
       <c r="F22" t="n">
-        <v>7.761376490633415</v>
+        <v>7.603231785509317</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.315508929916811</v>
+        <v>-9.277716906835558</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.090942689108467</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.03842789973674</v>
+        <v>-24.64049696381793</v>
       </c>
       <c r="F23" t="n">
-        <v>7.691757032848546</v>
+        <v>7.510394434113469</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.68628885713799</v>
+        <v>-8.672873422295176</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.213546503163915</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.53591857149341</v>
+        <v>-25.1078713532744</v>
       </c>
       <c r="F24" t="n">
-        <v>8.044933999907615</v>
+        <v>7.827607866659512</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.244796870034969</v>
+        <v>-8.222723004030849</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.342860971239417</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.75705324109084</v>
+        <v>-25.3244592464856</v>
       </c>
       <c r="F25" t="n">
-        <v>7.82296819914281</v>
+        <v>7.594157788764323</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.971902284737511</v>
+        <v>-7.914290227817785</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.465990955126494</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.97703410506768</v>
+        <v>-25.49607316552805</v>
       </c>
       <c r="F26" t="n">
-        <v>7.897398439684723</v>
+        <v>7.665899075529433</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.444173105508978</v>
+        <v>-7.340941725514068</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.574497328747269</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.87291781482985</v>
+        <v>-25.38932658959583</v>
       </c>
       <c r="F27" t="n">
-        <v>7.900527404079549</v>
+        <v>7.673110360658133</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.239969066691674</v>
+        <v>-7.139079520986017</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.659042582271993</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.82557267233065</v>
+        <v>-25.32028892362812</v>
       </c>
       <c r="F28" t="n">
-        <v>7.671237871028104</v>
+        <v>7.444348840348315</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.184874848308409</v>
+        <v>-7.063759481194325</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.708540228088525</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.88045177441177</v>
+        <v>-25.38253087005082</v>
       </c>
       <c r="F29" t="n">
-        <v>7.373443573757448</v>
+        <v>7.153726716151423</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.791754695146645</v>
+        <v>-6.665896991371654</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.716651839282623</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.91634686282866</v>
+        <v>-25.38807011483103</v>
       </c>
       <c r="F30" t="n">
-        <v>7.297131065571772</v>
+        <v>7.117753403624663</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.030211116073555</v>
+        <v>-6.924212558191972</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.675582961240975</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.67031248125803</v>
+        <v>-25.17303203679664</v>
       </c>
       <c r="F31" t="n">
-        <v>7.512726490388988</v>
+        <v>7.338795182091622</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.050348935358378</v>
+        <v>-6.958655611569388</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.578000950696046</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.5593271363722</v>
+        <v>-25.03795366607065</v>
       </c>
       <c r="F32" t="n">
-        <v>7.376342754829529</v>
+        <v>7.215430871818757</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.065998646339373</v>
+        <v>-6.951429659420088</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.42260844963855</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.34469484590776</v>
+        <v>-24.84315118745843</v>
       </c>
       <c r="F33" t="n">
-        <v>7.32603976317584</v>
+        <v>7.168457293841438</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.0809785633796</v>
+        <v>-6.996731197048922</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.208258606121336</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.11088298150442</v>
+        <v>-24.59215935292475</v>
       </c>
       <c r="F34" t="n">
-        <v>7.404513212396693</v>
+        <v>7.258385686151471</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.868257874600131</v>
+        <v>-6.797093490645317</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.936084899721767</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.82839616473408</v>
+        <v>-24.36584722505525</v>
       </c>
       <c r="F35" t="n">
-        <v>7.774092797494261</v>
+        <v>7.63498588510993</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.277712199704258</v>
+        <v>-7.213759100878143</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.613445081358222</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.34681432132236</v>
+        <v>-23.88275467852165</v>
       </c>
       <c r="F36" t="n">
-        <v>7.837068094946993</v>
+        <v>7.698039406672532</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.43852630257769</v>
+        <v>-7.405442393109277</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.247032414868138</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.86752053312435</v>
+        <v>-23.39953501780952</v>
       </c>
       <c r="F37" t="n">
-        <v>7.895545506082162</v>
+        <v>7.7551723409193</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.373966966900078</v>
+        <v>-7.338179436634261</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.845208183922944</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.28135794382245</v>
+        <v>-22.86343096981795</v>
       </c>
       <c r="F38" t="n">
-        <v>7.645409247750193</v>
+        <v>7.514110079332325</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.412419005908365</v>
+        <v>-7.342799548123496</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.419475890921722</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.7685255685174</v>
+        <v>-22.36163308301154</v>
       </c>
       <c r="F39" t="n">
-        <v>7.562472135259847</v>
+        <v>7.480943056747174</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.584062258992015</v>
+        <v>-7.515948615322156</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9768028858207983</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.37255023534536</v>
+        <v>-21.95812867926445</v>
       </c>
       <c r="F40" t="n">
-        <v>7.368236781444184</v>
+        <v>7.310091822775964</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.53546553073488</v>
+        <v>-7.495864575112869</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5256122475159339</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.88260330118435</v>
+        <v>-21.47695262342268</v>
       </c>
       <c r="F41" t="n">
-        <v>7.556517324895945</v>
+        <v>7.548861140142356</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.986877312770871</v>
+        <v>-7.971848505661975</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.07505828947086066</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.4944748240337</v>
+        <v>-21.1046254164659</v>
       </c>
       <c r="F42" t="n">
-        <v>7.530649589563098</v>
+        <v>7.526459710678152</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.005289312631673</v>
+        <v>-7.960021998050908</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.3735278179410694</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.16925808724652</v>
+        <v>-20.76173980886169</v>
       </c>
       <c r="F43" t="n">
-        <v>7.438266915805873</v>
+        <v>7.428024446419687</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.210285370561417</v>
+        <v>-8.166294086772917</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.8145141777883592</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.26904036383461</v>
+        <v>-19.87334859306084</v>
       </c>
       <c r="F44" t="n">
-        <v>7.665874630495098</v>
+        <v>7.631187126774337</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.261835058966168</v>
+        <v>-8.204990576124548</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.243955027048226</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.43925856235433</v>
+        <v>-19.07094034102843</v>
       </c>
       <c r="F45" t="n">
-        <v>7.782858786806639</v>
+        <v>7.804008630512913</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.351822119358605</v>
+        <v>-8.312915402711695</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.664384277484206</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.1123355621706</v>
+        <v>-18.71857983811613</v>
       </c>
       <c r="F46" t="n">
-        <v>7.646783058679796</v>
+        <v>7.660188715508877</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.394244031942826</v>
+        <v>-8.317647961358869</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.072960902359146</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.82267168331962</v>
+        <v>-18.41999352173304</v>
       </c>
       <c r="F47" t="n">
-        <v>7.89287121932596</v>
+        <v>7.886447064302834</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.814063051604812</v>
+        <v>-8.760381756206087</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.467889360865542</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.03251039348882</v>
+        <v>-17.60851616196249</v>
       </c>
       <c r="F48" t="n">
-        <v>7.8680692874901</v>
+        <v>7.874777004911508</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.790908715083104</v>
+        <v>-8.779830225522673</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.850191038500797</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.52384345203439</v>
+        <v>-17.11921457670791</v>
       </c>
       <c r="F49" t="n">
-        <v>7.814079984658759</v>
+        <v>7.811239471669081</v>
       </c>
       <c r="G49" t="n">
-        <v>-9.055496877713672</v>
+        <v>-9.011339367691697</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.215447998388284</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.00771588610105</v>
+        <v>-16.58888933483304</v>
       </c>
       <c r="F50" t="n">
-        <v>7.715527384235487</v>
+        <v>7.741952466351163</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.61973227121746</v>
+        <v>-9.58361717749156</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.56274251376662</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.47241363523566</v>
+        <v>-16.08838703484636</v>
       </c>
       <c r="F51" t="n">
-        <v>7.717722548318732</v>
+        <v>7.719942157436311</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.805978987812585</v>
+        <v>-9.764559321636082</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.89230526769222</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.89176584567964</v>
+        <v>-15.48238485567852</v>
       </c>
       <c r="F52" t="n">
-        <v>7.604150918800298</v>
+        <v>7.639063316836937</v>
       </c>
       <c r="G52" t="n">
-        <v>-10.06261273627068</v>
+        <v>-10.06412343939256</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.197973752665781</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.6657128351741</v>
+        <v>-15.29478388418126</v>
       </c>
       <c r="F53" t="n">
-        <v>7.771467400806728</v>
+        <v>7.813346633628721</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.52542079331345</v>
+        <v>-10.54269854358113</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.480489832441884</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.17981399869889</v>
+        <v>-14.81651189841844</v>
       </c>
       <c r="F54" t="n">
-        <v>7.659421141430771</v>
+        <v>7.747105479588891</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.75923754672366</v>
+        <v>-10.78963739142214</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.73799266778112</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.70922264272399</v>
+        <v>-14.34534363963324</v>
       </c>
       <c r="F55" t="n">
-        <v>7.755304344104707</v>
+        <v>7.783108126156852</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.2621256820614</v>
+        <v>-11.26257547069316</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.963133630257426</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.46366249481945</v>
+        <v>-14.08988814183007</v>
       </c>
       <c r="F56" t="n">
-        <v>7.47849366430685</v>
+        <v>7.550987858129464</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.62245526616677</v>
+        <v>-11.65388180230729</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.155751123968995</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.23746770311477</v>
+        <v>-13.83081966795225</v>
       </c>
       <c r="F57" t="n">
-        <v>7.494549162857798</v>
+        <v>7.551075860253069</v>
       </c>
       <c r="G57" t="n">
-        <v>-12.26396141320214</v>
+        <v>-12.26934420976262</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.312448688264825</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.85958169535031</v>
+        <v>-13.49676360674968</v>
       </c>
       <c r="F58" t="n">
-        <v>7.326269546498586</v>
+        <v>7.398587736073992</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.44007810756902</v>
+        <v>-12.45796698369506</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.428335185075501</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.6821400801225</v>
+        <v>-13.29244223176757</v>
       </c>
       <c r="F59" t="n">
-        <v>7.430684066155289</v>
+        <v>7.488926804960846</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.3818744808184</v>
+        <v>-12.44094835079133</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.506643972715823</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.06071308428954</v>
+        <v>-12.69549449331726</v>
       </c>
       <c r="F60" t="n">
-        <v>7.415469476785449</v>
+        <v>7.496318983343621</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.53061762573742</v>
+        <v>-12.58812212450607</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.546143201087992</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.84437453042855</v>
+        <v>-12.50906199446119</v>
       </c>
       <c r="F61" t="n">
-        <v>7.16791461407921</v>
+        <v>7.190765832175171</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.67495088646248</v>
+        <v>-12.74157338303793</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.548030053552802</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.84196425004316</v>
+        <v>-12.50177248522262</v>
       </c>
       <c r="F62" t="n">
-        <v>7.364824254651077</v>
+        <v>7.417884646177705</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.95093043509296</v>
+        <v>-13.02686648974989</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.520536902851853</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.86910801616827</v>
+        <v>-12.49824262226471</v>
       </c>
       <c r="F63" t="n">
-        <v>7.31906803938362</v>
+        <v>7.370500391623565</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.9858134990884</v>
+        <v>-13.0901106825803</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.46355974234629</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.07861662743618</v>
+        <v>-12.72002264076857</v>
       </c>
       <c r="F64" t="n">
-        <v>7.139137919660549</v>
+        <v>7.230185894543106</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.24981498089494</v>
+        <v>-13.36955164807256</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.383280555025277</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.02248593959713</v>
+        <v>-12.69031214603833</v>
       </c>
       <c r="F65" t="n">
-        <v>7.345874464034915</v>
+        <v>7.412042282971742</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.33479080924879</v>
+        <v>-13.42438674909187</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.288194787638878</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.97041801646449</v>
+        <v>-12.64580262752193</v>
       </c>
       <c r="F66" t="n">
-        <v>7.058571975500658</v>
+        <v>7.149693285486219</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.56244252499982</v>
+        <v>-13.65156912018368</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.178947794196852</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.3585807166632</v>
+        <v>-13.00572153505048</v>
       </c>
       <c r="F67" t="n">
-        <v>7.085789076728773</v>
+        <v>7.146226979617576</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.57949538095162</v>
+        <v>-13.71721870439261</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.063196956425022</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.20268984370475</v>
+        <v>-12.86261541504901</v>
       </c>
       <c r="F68" t="n">
-        <v>7.179222886962385</v>
+        <v>7.230019668309631</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.51128395714442</v>
+        <v>-13.68233564039717</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.944906359048043</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.71429018927933</v>
+        <v>-13.34531684103326</v>
       </c>
       <c r="F69" t="n">
-        <v>7.243718665550727</v>
+        <v>7.287167269577</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.16378801606471</v>
+        <v>-13.37381975106737</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.822380206791127</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.60032255020467</v>
+        <v>-13.22750155355434</v>
       </c>
       <c r="F70" t="n">
-        <v>7.403002509274816</v>
+        <v>7.434922835108903</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.16899969738484</v>
+        <v>-13.37272950253605</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.701619042294642</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.88375294530034</v>
+        <v>-13.53500052945583</v>
       </c>
       <c r="F71" t="n">
-        <v>7.248529448307771</v>
+        <v>7.291044252022464</v>
       </c>
       <c r="G71" t="n">
-        <v>-13.00875760831483</v>
+        <v>-13.27059326007933</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.581170537722463</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.94694335905521</v>
+        <v>-13.56112738215262</v>
       </c>
       <c r="F72" t="n">
-        <v>7.262448450857878</v>
+        <v>7.301927181308216</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.23036651157835</v>
+        <v>-13.48245837265709</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.457833767608251</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.35645146323487</v>
+        <v>-13.96304774767483</v>
       </c>
       <c r="F73" t="n">
-        <v>7.402010040880832</v>
+        <v>7.426665302510684</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.24106365860317</v>
+        <v>-13.45590128735601</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.335289830104603</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.47286849474985</v>
+        <v>-14.10247733451238</v>
       </c>
       <c r="F74" t="n">
-        <v>7.274206512372809</v>
+        <v>7.298636879686782</v>
       </c>
       <c r="G74" t="n">
-        <v>-13.19447142316147</v>
+        <v>-13.43652615314242</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.207500581913121</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.0797115830988</v>
+        <v>-14.68901637734303</v>
       </c>
       <c r="F75" t="n">
-        <v>7.385020742018303</v>
+        <v>7.391376450945292</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.26024323254207</v>
+        <v>-13.52458205582243</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.072674206774772</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.19412901080521</v>
+        <v>-14.8269059270175</v>
       </c>
       <c r="F76" t="n">
-        <v>7.425770614254039</v>
+        <v>7.459788324034033</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.37572646374547</v>
+        <v>-13.600053654827</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.931495519637914</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.76337074734072</v>
+        <v>-15.39549742563971</v>
       </c>
       <c r="F77" t="n">
-        <v>7.457798498239199</v>
+        <v>7.472118399352392</v>
       </c>
       <c r="G77" t="n">
-        <v>-13.08404342505846</v>
+        <v>-13.31972777909183</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.778046076814626</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.12796843444091</v>
+        <v>-15.7196776929711</v>
       </c>
       <c r="F78" t="n">
-        <v>7.436438427237647</v>
+        <v>7.444783961959471</v>
       </c>
       <c r="G78" t="n">
-        <v>-12.98911357872357</v>
+        <v>-13.25661070043995</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.611795591071056</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.12739642063748</v>
+        <v>-15.76931089068403</v>
       </c>
       <c r="F79" t="n">
-        <v>7.580082337994475</v>
+        <v>7.638056181422352</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.72151378786298</v>
+        <v>-13.00240678839471</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.430437796222801</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.85648423668677</v>
+        <v>-16.44508408684961</v>
       </c>
       <c r="F80" t="n">
-        <v>7.58438466403736</v>
+        <v>7.623174044519463</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.52392457533661</v>
+        <v>-12.82952661657373</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.22768601972393</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.6335478771211</v>
+        <v>-17.20057742898711</v>
       </c>
       <c r="F81" t="n">
-        <v>7.729886397403616</v>
+        <v>7.728419695343542</v>
       </c>
       <c r="G81" t="n">
-        <v>-12.12341713279894</v>
+        <v>-12.42486840720605</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.003681080052862</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.43064177868918</v>
+        <v>-17.96959865312536</v>
       </c>
       <c r="F82" t="n">
-        <v>7.807206041003876</v>
+        <v>7.784545494175725</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.03967333417555</v>
+        <v>-12.37446274640816</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.755926087561223</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.11258979052768</v>
+        <v>-18.67040845345642</v>
       </c>
       <c r="F83" t="n">
-        <v>7.942621753203686</v>
+        <v>7.9442009024217</v>
       </c>
       <c r="G83" t="n">
-        <v>-12.16844977505009</v>
+        <v>-12.52543527845849</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.48121134415128</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.06654747742072</v>
+        <v>-19.67478157916109</v>
       </c>
       <c r="F84" t="n">
-        <v>7.677310017556813</v>
+        <v>7.675207744604039</v>
       </c>
       <c r="G84" t="n">
-        <v>-11.89753523753374</v>
+        <v>-12.24693300228468</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.184405898093376</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.13334344280216</v>
+        <v>-20.74415894016827</v>
       </c>
       <c r="F85" t="n">
-        <v>8.107464397735457</v>
+        <v>8.100492673943236</v>
       </c>
       <c r="G85" t="n">
-        <v>-12.00765522820413</v>
+        <v>-12.33383998835096</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.867299043085172</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.20260346764453</v>
+        <v>-21.79169710750093</v>
       </c>
       <c r="F86" t="n">
-        <v>8.077269891325392</v>
+        <v>8.068953690644769</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.64780965577859</v>
+        <v>-11.98117636701292</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.535176776472001</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.13178855674292</v>
+        <v>-22.75396610606773</v>
       </c>
       <c r="F87" t="n">
-        <v>8.145774655544603</v>
+        <v>8.170674367517801</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.46873511225723</v>
+        <v>-11.78594854480327</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.198025019110075</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.32385554507532</v>
+        <v>-23.95492130888419</v>
       </c>
       <c r="F88" t="n">
-        <v>8.192019771498751</v>
+        <v>8.183048443897963</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.58193517725377</v>
+        <v>-11.89389781642475</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.8635943024414573</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.74072884716221</v>
+        <v>-25.3506301002442</v>
       </c>
       <c r="F89" t="n">
-        <v>8.128184008837444</v>
+        <v>8.103362520974116</v>
       </c>
       <c r="G89" t="n">
-        <v>-11.03206857493185</v>
+        <v>-11.34495523640067</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.5452174139804233</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.21227346853837</v>
+        <v>-26.84688865133262</v>
       </c>
       <c r="F90" t="n">
-        <v>8.251479873014171</v>
+        <v>8.229083332556835</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.13552484924264</v>
+        <v>-11.47215741706407</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2561784800234267</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.93198163397571</v>
+        <v>-28.57314808597162</v>
       </c>
       <c r="F91" t="n">
-        <v>8.391725923998493</v>
+        <v>8.363335461122318</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.78715866494061</v>
+        <v>-11.07680787677099</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.007877105475395966</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.75382115286289</v>
+        <v>-30.43350075645293</v>
       </c>
       <c r="F92" t="n">
-        <v>8.432896250824784</v>
+        <v>8.398521643543505</v>
       </c>
       <c r="G92" t="n">
-        <v>-10.75558545859408</v>
+        <v>-11.04616847073603</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1830156299313667</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.25401290997574</v>
+        <v>-31.97834381328131</v>
       </c>
       <c r="F93" t="n">
-        <v>8.300697505143404</v>
+        <v>8.279904558938414</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.87536612683349</v>
+        <v>-11.15562844547939</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3057036178961987</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.24364070003202</v>
+        <v>-33.99998970930901</v>
       </c>
       <c r="F94" t="n">
-        <v>8.189795273374305</v>
+        <v>8.162089271459498</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.24493358035168</v>
+        <v>-10.51426407964316</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.3516840929332168</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.46664767738391</v>
+        <v>-36.22710100792568</v>
       </c>
       <c r="F95" t="n">
-        <v>8.032511033458784</v>
+        <v>8.004462801063294</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.716070151530019</v>
+        <v>-9.985923774556257</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.307290264151338</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.33738215394711</v>
+        <v>-38.156498677885</v>
       </c>
       <c r="F96" t="n">
-        <v>7.882648305967241</v>
+        <v>7.832526207567629</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.162131006487956</v>
+        <v>-9.440031934817135</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.178169533782363</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.92652685556227</v>
+        <v>-40.76959462414116</v>
       </c>
       <c r="F97" t="n">
-        <v>7.592739976772918</v>
+        <v>7.522582728232688</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.761652897991484</v>
+        <v>-9.060781894136808</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05044377044743934</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.79663309474307</v>
+        <v>-42.71013678525361</v>
       </c>
       <c r="F98" t="n">
-        <v>7.326543330883132</v>
+        <v>7.254572260795278</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.229210716143244</v>
+        <v>-8.543774306967419</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3545087522072935</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.43838839925309</v>
+        <v>-45.3603134040919</v>
       </c>
       <c r="F99" t="n">
-        <v>6.962605659709984</v>
+        <v>6.825410349010617</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.868314007241317</v>
+        <v>-8.187517265582194</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.7593844943998324</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.73402157361301</v>
+        <v>-47.69711568302638</v>
       </c>
       <c r="F100" t="n">
-        <v>6.392171005498949</v>
+        <v>6.290548108763255</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.503994993532549</v>
+        <v>-7.825183188661393</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.205499106813492</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.83856913683127</v>
+        <v>-49.83268766157037</v>
       </c>
       <c r="F101" t="n">
-        <v>6.144005016934346</v>
+        <v>6.049632517382287</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.207589174212096</v>
+        <v>-7.557627398862606</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.769347643511445</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.91541069813472</v>
+        <v>-51.90172270115907</v>
       </c>
       <c r="F102" t="n">
-        <v>5.643668943181138</v>
+        <v>5.497135629365962</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.986972739342559</v>
+        <v>-7.368408166092396</v>
       </c>
     </row>
   </sheetData>
